--- a/tr/Everyone Cleaned.xlsx
+++ b/tr/Everyone Cleaned.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cameron.albin\django_projects\targetprice\onlineprice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie\django_projects\targetprice\tr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED267E-8FE2-44E2-B8B3-4EA3D3793927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Topology" sheetId="2" r:id="rId2"/>
+    <sheet name="packages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="853">
   <si>
     <t>Datasheets</t>
   </si>
@@ -2576,12 +2577,15 @@
   </si>
   <si>
     <t>WE-LLCR RESONANT CONVERTER</t>
+  </si>
+  <si>
+    <t>EE13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2635,6 +2639,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581361</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607107C1-8946-4A9E-89DC-E9C7922DDC9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="0"/>
+          <a:ext cx="2410161" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2899,27 +2958,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I648"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="A623" sqref="A623"/>
+    <sheetView topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="A622" sqref="A622"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2948,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2977,7 +3036,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3065,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3035,7 +3094,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -3064,7 +3123,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3093,7 +3152,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3122,7 +3181,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -3151,7 +3210,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -3180,7 +3239,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3209,7 +3268,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3238,7 +3297,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -3267,7 +3326,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3296,7 +3355,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -3325,7 +3384,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>41</v>
       </c>
@@ -3354,7 +3413,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3383,7 +3442,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3412,7 +3471,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -3441,7 +3500,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -3470,7 +3529,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -3499,7 +3558,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3528,7 +3587,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -3557,7 +3616,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3586,7 +3645,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -3615,7 +3674,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -3644,7 +3703,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3732,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -3702,7 +3761,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -3731,7 +3790,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
@@ -3760,7 +3819,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -3789,7 +3848,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3877,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -3847,7 +3906,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -3876,7 +3935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -3905,7 +3964,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -3934,7 +3993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
@@ -3963,7 +4022,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -3992,7 +4051,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -4021,7 +4080,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -4050,7 +4109,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -4079,7 +4138,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -4108,7 +4167,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -4137,7 +4196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -4166,7 +4225,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
@@ -4195,7 +4254,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
@@ -4224,7 +4283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>95</v>
       </c>
@@ -4253,7 +4312,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -4282,7 +4341,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -4311,7 +4370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -4340,7 +4399,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -4369,7 +4428,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,7 +4457,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -4427,7 +4486,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>48</v>
       </c>
@@ -4456,7 +4515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>100</v>
       </c>
@@ -4485,7 +4544,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>103</v>
       </c>
@@ -4514,7 +4573,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>104</v>
       </c>
@@ -4543,7 +4602,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -4572,7 +4631,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>109</v>
       </c>
@@ -4601,7 +4660,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
@@ -4630,7 +4689,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>114</v>
       </c>
@@ -4659,7 +4718,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
@@ -4688,7 +4747,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>120</v>
       </c>
@@ -4717,7 +4776,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -4746,7 +4805,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4775,7 +4834,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -4804,7 +4863,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
@@ -4833,7 +4892,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
@@ -4862,7 +4921,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>128</v>
       </c>
@@ -4891,7 +4950,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>129</v>
       </c>
@@ -4920,7 +4979,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>131</v>
       </c>
@@ -4949,7 +5008,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>133</v>
       </c>
@@ -4978,7 +5037,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>134</v>
       </c>
@@ -5007,7 +5066,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -5036,7 +5095,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>138</v>
       </c>
@@ -5065,7 +5124,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>140</v>
       </c>
@@ -5094,7 +5153,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>141</v>
       </c>
@@ -5123,7 +5182,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>142</v>
       </c>
@@ -5152,7 +5211,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>143</v>
       </c>
@@ -5181,7 +5240,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>145</v>
       </c>
@@ -5210,7 +5269,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>146</v>
       </c>
@@ -5239,7 +5298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>148</v>
       </c>
@@ -5268,7 +5327,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>150</v>
       </c>
@@ -5297,7 +5356,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>151</v>
       </c>
@@ -5326,7 +5385,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>152</v>
       </c>
@@ -5355,7 +5414,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>153</v>
       </c>
@@ -5384,7 +5443,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>155</v>
       </c>
@@ -5413,7 +5472,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>158</v>
       </c>
@@ -5442,7 +5501,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>160</v>
       </c>
@@ -5471,7 +5530,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>161</v>
       </c>
@@ -5500,7 +5559,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>162</v>
       </c>
@@ -5529,7 +5588,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>163</v>
       </c>
@@ -5558,7 +5617,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>164</v>
       </c>
@@ -5587,7 +5646,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>165</v>
       </c>
@@ -5616,7 +5675,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>165</v>
       </c>
@@ -5645,7 +5704,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -5674,7 +5733,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>173</v>
       </c>
@@ -5703,7 +5762,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
@@ -5732,7 +5791,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
@@ -5761,7 +5820,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
@@ -5790,7 +5849,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
@@ -5819,7 +5878,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
@@ -5848,7 +5907,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -5877,7 +5936,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>183</v>
       </c>
@@ -5906,7 +5965,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>184</v>
       </c>
@@ -5935,7 +5994,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>109</v>
       </c>
@@ -5964,7 +6023,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>187</v>
       </c>
@@ -5993,7 +6052,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>188</v>
       </c>
@@ -6022,7 +6081,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>189</v>
       </c>
@@ -6051,7 +6110,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>190</v>
       </c>
@@ -6080,7 +6139,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>191</v>
       </c>
@@ -6109,7 +6168,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>192</v>
       </c>
@@ -6138,7 +6197,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>193</v>
       </c>
@@ -6167,7 +6226,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
@@ -6196,7 +6255,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>48</v>
       </c>
@@ -6225,7 +6284,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>48</v>
       </c>
@@ -6254,7 +6313,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>194</v>
       </c>
@@ -6283,7 +6342,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -6312,7 +6371,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>196</v>
       </c>
@@ -6341,7 +6400,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>201</v>
       </c>
@@ -6370,7 +6429,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>201</v>
       </c>
@@ -6399,7 +6458,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>201</v>
       </c>
@@ -6428,7 +6487,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>201</v>
       </c>
@@ -6457,7 +6516,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>210</v>
       </c>
@@ -6486,7 +6545,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>213</v>
       </c>
@@ -6515,7 +6574,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>216</v>
       </c>
@@ -6544,7 +6603,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>218</v>
       </c>
@@ -6573,7 +6632,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>220</v>
       </c>
@@ -6602,7 +6661,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>220</v>
       </c>
@@ -6631,7 +6690,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
@@ -6660,7 +6719,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>220</v>
       </c>
@@ -6689,7 +6748,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>220</v>
       </c>
@@ -6718,7 +6777,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>220</v>
       </c>
@@ -6747,7 +6806,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>220</v>
       </c>
@@ -6776,7 +6835,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>220</v>
       </c>
@@ -6805,7 +6864,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>220</v>
       </c>
@@ -6834,7 +6893,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>220</v>
       </c>
@@ -6863,7 +6922,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>241</v>
       </c>
@@ -6892,7 +6951,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>244</v>
       </c>
@@ -6921,7 +6980,7 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>247</v>
       </c>
@@ -6950,7 +7009,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>250</v>
       </c>
@@ -6979,7 +7038,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>252</v>
       </c>
@@ -7008,7 +7067,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>253</v>
       </c>
@@ -7037,7 +7096,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>254</v>
       </c>
@@ -7066,7 +7125,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>255</v>
       </c>
@@ -7095,7 +7154,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>256</v>
       </c>
@@ -7124,7 +7183,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>258</v>
       </c>
@@ -7153,7 +7212,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>259</v>
       </c>
@@ -7182,7 +7241,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>260</v>
       </c>
@@ -7211,7 +7270,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>261</v>
       </c>
@@ -7240,7 +7299,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>262</v>
       </c>
@@ -7269,7 +7328,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>263</v>
       </c>
@@ -7298,7 +7357,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>265</v>
       </c>
@@ -7327,7 +7386,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>267</v>
       </c>
@@ -7356,7 +7415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>269</v>
       </c>
@@ -7385,7 +7444,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
@@ -7414,7 +7473,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>273</v>
       </c>
@@ -7443,7 +7502,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>274</v>
       </c>
@@ -7472,7 +7531,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>275</v>
       </c>
@@ -7501,7 +7560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>277</v>
       </c>
@@ -7530,7 +7589,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>279</v>
       </c>
@@ -7559,7 +7618,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>280</v>
       </c>
@@ -7588,7 +7647,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>281</v>
       </c>
@@ -7617,7 +7676,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>282</v>
       </c>
@@ -7646,7 +7705,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>284</v>
       </c>
@@ -7675,7 +7734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>286</v>
       </c>
@@ -7704,7 +7763,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>288</v>
       </c>
@@ -7733,7 +7792,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>290</v>
       </c>
@@ -7762,7 +7821,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>292</v>
       </c>
@@ -7791,7 +7850,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>293</v>
       </c>
@@ -7820,7 +7879,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>247</v>
       </c>
@@ -7849,7 +7908,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>247</v>
       </c>
@@ -7878,7 +7937,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>247</v>
       </c>
@@ -7907,7 +7966,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>247</v>
       </c>
@@ -7936,7 +7995,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>247</v>
       </c>
@@ -7965,7 +8024,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>196</v>
       </c>
@@ -7994,7 +8053,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>303</v>
       </c>
@@ -8023,7 +8082,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>303</v>
       </c>
@@ -8052,7 +8111,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>307</v>
       </c>
@@ -8081,7 +8140,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>309</v>
       </c>
@@ -8110,7 +8169,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>311</v>
       </c>
@@ -8139,7 +8198,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>312</v>
       </c>
@@ -8168,7 +8227,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>313</v>
       </c>
@@ -8197,7 +8256,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>314</v>
       </c>
@@ -8226,7 +8285,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>315</v>
       </c>
@@ -8255,7 +8314,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>316</v>
       </c>
@@ -8284,7 +8343,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>319</v>
       </c>
@@ -8313,7 +8372,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>321</v>
       </c>
@@ -8342,7 +8401,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>323</v>
       </c>
@@ -8371,7 +8430,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>325</v>
       </c>
@@ -8400,7 +8459,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>327</v>
       </c>
@@ -8429,7 +8488,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>329</v>
       </c>
@@ -8458,7 +8517,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>331</v>
       </c>
@@ -8487,7 +8546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>332</v>
       </c>
@@ -8516,7 +8575,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>334</v>
       </c>
@@ -8545,7 +8604,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>336</v>
       </c>
@@ -8574,7 +8633,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>338</v>
       </c>
@@ -8603,7 +8662,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>339</v>
       </c>
@@ -8632,7 +8691,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>340</v>
       </c>
@@ -8661,7 +8720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>341</v>
       </c>
@@ -8690,7 +8749,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>342</v>
       </c>
@@ -8719,7 +8778,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>342</v>
       </c>
@@ -8748,7 +8807,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>342</v>
       </c>
@@ -8777,7 +8836,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>342</v>
       </c>
@@ -8806,7 +8865,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>342</v>
       </c>
@@ -8835,7 +8894,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>342</v>
       </c>
@@ -8864,7 +8923,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>342</v>
       </c>
@@ -8893,7 +8952,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>342</v>
       </c>
@@ -8922,7 +8981,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>342</v>
       </c>
@@ -8951,7 +9010,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>342</v>
       </c>
@@ -8980,7 +9039,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>364</v>
       </c>
@@ -9009,7 +9068,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>364</v>
       </c>
@@ -9038,7 +9097,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>364</v>
       </c>
@@ -9067,7 +9126,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>364</v>
       </c>
@@ -9096,7 +9155,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>364</v>
       </c>
@@ -9125,7 +9184,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>364</v>
       </c>
@@ -9154,7 +9213,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>364</v>
       </c>
@@ -9183,7 +9242,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>364</v>
       </c>
@@ -9212,7 +9271,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>364</v>
       </c>
@@ -9241,7 +9300,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>364</v>
       </c>
@@ -9270,7 +9329,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>364</v>
       </c>
@@ -9299,7 +9358,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>364</v>
       </c>
@@ -9328,7 +9387,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>364</v>
       </c>
@@ -9357,7 +9416,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>386</v>
       </c>
@@ -9386,7 +9445,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>389</v>
       </c>
@@ -9415,7 +9474,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>390</v>
       </c>
@@ -9444,7 +9503,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>201</v>
       </c>
@@ -9473,7 +9532,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>201</v>
       </c>
@@ -9502,7 +9561,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>201</v>
       </c>
@@ -9531,7 +9590,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>201</v>
       </c>
@@ -9560,7 +9619,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>48</v>
       </c>
@@ -9589,7 +9648,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>400</v>
       </c>
@@ -9618,7 +9677,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>402</v>
       </c>
@@ -9647,7 +9706,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>404</v>
       </c>
@@ -9676,7 +9735,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>406</v>
       </c>
@@ -9705,7 +9764,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>407</v>
       </c>
@@ -9734,7 +9793,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>408</v>
       </c>
@@ -9763,7 +9822,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>409</v>
       </c>
@@ -9792,7 +9851,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>410</v>
       </c>
@@ -9821,7 +9880,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>411</v>
       </c>
@@ -9850,7 +9909,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>412</v>
       </c>
@@ -9879,7 +9938,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>413</v>
       </c>
@@ -9908,7 +9967,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>414</v>
       </c>
@@ -9937,7 +9996,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>415</v>
       </c>
@@ -9966,7 +10025,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>416</v>
       </c>
@@ -9995,7 +10054,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>417</v>
       </c>
@@ -10024,7 +10083,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>419</v>
       </c>
@@ -10053,7 +10112,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>422</v>
       </c>
@@ -10082,7 +10141,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>423</v>
       </c>
@@ -10111,7 +10170,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>424</v>
       </c>
@@ -10140,7 +10199,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>425</v>
       </c>
@@ -10169,7 +10228,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>427</v>
       </c>
@@ -10198,7 +10257,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>428</v>
       </c>
@@ -10227,7 +10286,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>429</v>
       </c>
@@ -10256,7 +10315,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>431</v>
       </c>
@@ -10285,7 +10344,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>433</v>
       </c>
@@ -10314,7 +10373,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>434</v>
       </c>
@@ -10343,7 +10402,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>436</v>
       </c>
@@ -10372,7 +10431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>437</v>
       </c>
@@ -10401,7 +10460,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>439</v>
       </c>
@@ -10430,7 +10489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>440</v>
       </c>
@@ -10459,7 +10518,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>441</v>
       </c>
@@ -10488,7 +10547,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>443</v>
       </c>
@@ -10517,7 +10576,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>444</v>
       </c>
@@ -10546,7 +10605,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>220</v>
       </c>
@@ -10575,7 +10634,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>220</v>
       </c>
@@ -10604,7 +10663,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>220</v>
       </c>
@@ -10633,7 +10692,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>220</v>
       </c>
@@ -10662,7 +10721,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>220</v>
       </c>
@@ -10691,7 +10750,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>220</v>
       </c>
@@ -10720,7 +10779,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>220</v>
       </c>
@@ -10749,7 +10808,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>220</v>
       </c>
@@ -10778,7 +10837,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>220</v>
       </c>
@@ -10807,7 +10866,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>220</v>
       </c>
@@ -10836,7 +10895,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>247</v>
       </c>
@@ -10865,7 +10924,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>247</v>
       </c>
@@ -10894,7 +10953,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>247</v>
       </c>
@@ -10923,7 +10982,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>247</v>
       </c>
@@ -10952,7 +11011,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>247</v>
       </c>
@@ -10981,7 +11040,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>473</v>
       </c>
@@ -11010,7 +11069,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>475</v>
       </c>
@@ -11039,7 +11098,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>477</v>
       </c>
@@ -11068,7 +11127,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>364</v>
       </c>
@@ -11097,7 +11156,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>364</v>
       </c>
@@ -11126,7 +11185,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>364</v>
       </c>
@@ -11155,7 +11214,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>364</v>
       </c>
@@ -11184,7 +11243,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>364</v>
       </c>
@@ -11213,7 +11272,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>484</v>
       </c>
@@ -11242,7 +11301,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>486</v>
       </c>
@@ -11271,7 +11330,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>488</v>
       </c>
@@ -11300,7 +11359,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>489</v>
       </c>
@@ -11329,7 +11388,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>490</v>
       </c>
@@ -11358,7 +11417,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>196</v>
       </c>
@@ -11387,7 +11446,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>492</v>
       </c>
@@ -11416,7 +11475,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>493</v>
       </c>
@@ -11445,7 +11504,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>494</v>
       </c>
@@ -11474,7 +11533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>495</v>
       </c>
@@ -11503,7 +11562,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>498</v>
       </c>
@@ -11532,7 +11591,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>196</v>
       </c>
@@ -11561,7 +11620,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>501</v>
       </c>
@@ -11590,7 +11649,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>503</v>
       </c>
@@ -11619,7 +11678,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>505</v>
       </c>
@@ -11648,7 +11707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>507</v>
       </c>
@@ -11677,7 +11736,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>509</v>
       </c>
@@ -11706,7 +11765,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>48</v>
       </c>
@@ -11735,7 +11794,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>510</v>
       </c>
@@ -11764,7 +11823,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>512</v>
       </c>
@@ -11793,7 +11852,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>514</v>
       </c>
@@ -11822,7 +11881,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>516</v>
       </c>
@@ -11851,7 +11910,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>518</v>
       </c>
@@ -11880,7 +11939,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>520</v>
       </c>
@@ -11909,7 +11968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>521</v>
       </c>
@@ -11938,7 +11997,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>523</v>
       </c>
@@ -11967,7 +12026,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>524</v>
       </c>
@@ -11996,7 +12055,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>526</v>
       </c>
@@ -12025,7 +12084,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>528</v>
       </c>
@@ -12054,7 +12113,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>529</v>
       </c>
@@ -12083,7 +12142,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>530</v>
       </c>
@@ -12112,7 +12171,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>531</v>
       </c>
@@ -12141,7 +12200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>533</v>
       </c>
@@ -12170,7 +12229,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>535</v>
       </c>
@@ -12199,7 +12258,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>537</v>
       </c>
@@ -12228,7 +12287,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>539</v>
       </c>
@@ -12257,7 +12316,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>540</v>
       </c>
@@ -12286,7 +12345,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>542</v>
       </c>
@@ -12315,7 +12374,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>544</v>
       </c>
@@ -12344,7 +12403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>546</v>
       </c>
@@ -12373,7 +12432,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>547</v>
       </c>
@@ -12402,7 +12461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>550</v>
       </c>
@@ -12431,7 +12490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>552</v>
       </c>
@@ -12460,7 +12519,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>552</v>
       </c>
@@ -12489,7 +12548,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>552</v>
       </c>
@@ -12518,7 +12577,7 @@
         <v>15065</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>557</v>
       </c>
@@ -12547,7 +12606,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>303</v>
       </c>
@@ -12576,7 +12635,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>303</v>
       </c>
@@ -12605,7 +12664,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>561</v>
       </c>
@@ -12634,7 +12693,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>563</v>
       </c>
@@ -12663,7 +12722,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>565</v>
       </c>
@@ -12692,7 +12751,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>567</v>
       </c>
@@ -12721,7 +12780,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>568</v>
       </c>
@@ -12750,7 +12809,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>569</v>
       </c>
@@ -12779,7 +12838,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>570</v>
       </c>
@@ -12808,7 +12867,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>572</v>
       </c>
@@ -12837,7 +12896,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>573</v>
       </c>
@@ -12866,7 +12925,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>574</v>
       </c>
@@ -12895,7 +12954,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>575</v>
       </c>
@@ -12924,7 +12983,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>576</v>
       </c>
@@ -12953,7 +13012,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>577</v>
       </c>
@@ -12982,7 +13041,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>578</v>
       </c>
@@ -13011,7 +13070,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>579</v>
       </c>
@@ -13040,7 +13099,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>580</v>
       </c>
@@ -13069,7 +13128,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>581</v>
       </c>
@@ -13098,7 +13157,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>582</v>
       </c>
@@ -13127,7 +13186,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>584</v>
       </c>
@@ -13156,7 +13215,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>584</v>
       </c>
@@ -13185,7 +13244,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>584</v>
       </c>
@@ -13214,7 +13273,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>584</v>
       </c>
@@ -13243,7 +13302,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>584</v>
       </c>
@@ -13272,7 +13331,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>584</v>
       </c>
@@ -13301,7 +13360,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>584</v>
       </c>
@@ -13330,7 +13389,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>584</v>
       </c>
@@ -13359,7 +13418,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>584</v>
       </c>
@@ -13388,7 +13447,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>584</v>
       </c>
@@ -13417,7 +13476,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>605</v>
       </c>
@@ -13446,7 +13505,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>605</v>
       </c>
@@ -13475,7 +13534,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>609</v>
       </c>
@@ -13504,7 +13563,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>610</v>
       </c>
@@ -13533,7 +13592,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>613</v>
       </c>
@@ -13562,7 +13621,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>615</v>
       </c>
@@ -13591,7 +13650,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>616</v>
       </c>
@@ -13620,7 +13679,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>617</v>
       </c>
@@ -13649,7 +13708,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>619</v>
       </c>
@@ -13678,7 +13737,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>621</v>
       </c>
@@ -13707,7 +13766,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>622</v>
       </c>
@@ -13736,7 +13795,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>625</v>
       </c>
@@ -13765,7 +13824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>627</v>
       </c>
@@ -13794,7 +13853,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>630</v>
       </c>
@@ -13823,7 +13882,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>632</v>
       </c>
@@ -13852,7 +13911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>634</v>
       </c>
@@ -13881,7 +13940,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>634</v>
       </c>
@@ -13910,7 +13969,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>634</v>
       </c>
@@ -13939,7 +13998,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>634</v>
       </c>
@@ -13968,7 +14027,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>642</v>
       </c>
@@ -13997,7 +14056,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>642</v>
       </c>
@@ -14026,7 +14085,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>642</v>
       </c>
@@ -14055,7 +14114,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>642</v>
       </c>
@@ -14084,7 +14143,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>648</v>
       </c>
@@ -14113,7 +14172,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>650</v>
       </c>
@@ -14142,7 +14201,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>651</v>
       </c>
@@ -14171,7 +14230,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>652</v>
       </c>
@@ -14200,7 +14259,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>653</v>
       </c>
@@ -14229,7 +14288,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>654</v>
       </c>
@@ -14258,7 +14317,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>655</v>
       </c>
@@ -14287,7 +14346,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>656</v>
       </c>
@@ -14316,7 +14375,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>657</v>
       </c>
@@ -14345,7 +14404,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>657</v>
       </c>
@@ -14374,7 +14433,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>662</v>
       </c>
@@ -14403,7 +14462,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>664</v>
       </c>
@@ -14432,7 +14491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>665</v>
       </c>
@@ -14461,7 +14520,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>667</v>
       </c>
@@ -14490,7 +14549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>669</v>
       </c>
@@ -14519,7 +14578,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>671</v>
       </c>
@@ -14548,7 +14607,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>673</v>
       </c>
@@ -14577,7 +14636,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>674</v>
       </c>
@@ -14606,7 +14665,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>676</v>
       </c>
@@ -14635,7 +14694,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>678</v>
       </c>
@@ -14664,7 +14723,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>679</v>
       </c>
@@ -14693,7 +14752,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>681</v>
       </c>
@@ -14722,7 +14781,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>683</v>
       </c>
@@ -14751,7 +14810,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>685</v>
       </c>
@@ -14780,7 +14839,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>687</v>
       </c>
@@ -14809,7 +14868,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>689</v>
       </c>
@@ -14838,7 +14897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>691</v>
       </c>
@@ -14867,7 +14926,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>693</v>
       </c>
@@ -14896,7 +14955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>695</v>
       </c>
@@ -14925,7 +14984,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>697</v>
       </c>
@@ -14954,7 +15013,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>698</v>
       </c>
@@ -14983,7 +15042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>699</v>
       </c>
@@ -15012,7 +15071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>700</v>
       </c>
@@ -15041,7 +15100,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>702</v>
       </c>
@@ -15070,7 +15129,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>704</v>
       </c>
@@ -15099,7 +15158,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>706</v>
       </c>
@@ -15128,7 +15187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>707</v>
       </c>
@@ -15157,7 +15216,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>708</v>
       </c>
@@ -15186,7 +15245,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>710</v>
       </c>
@@ -15215,7 +15274,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>711</v>
       </c>
@@ -15244,7 +15303,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>713</v>
       </c>
@@ -15273,7 +15332,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>715</v>
       </c>
@@ -15302,7 +15361,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>716</v>
       </c>
@@ -15331,7 +15390,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>718</v>
       </c>
@@ -15360,7 +15419,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>720</v>
       </c>
@@ -15389,7 +15448,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>722</v>
       </c>
@@ -15418,7 +15477,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>723</v>
       </c>
@@ -15447,7 +15506,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>725</v>
       </c>
@@ -15476,7 +15535,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>725</v>
       </c>
@@ -15505,7 +15564,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>725</v>
       </c>
@@ -15534,7 +15593,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>725</v>
       </c>
@@ -15563,7 +15622,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>725</v>
       </c>
@@ -15592,7 +15651,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>732</v>
       </c>
@@ -15621,7 +15680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>196</v>
       </c>
@@ -15650,7 +15709,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>642</v>
       </c>
@@ -15679,7 +15738,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>642</v>
       </c>
@@ -15708,7 +15767,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>642</v>
       </c>
@@ -15737,7 +15796,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>725</v>
       </c>
@@ -15766,7 +15825,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>725</v>
       </c>
@@ -15795,7 +15854,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>725</v>
       </c>
@@ -15824,7 +15883,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>725</v>
       </c>
@@ -15853,7 +15912,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>743</v>
       </c>
@@ -15882,7 +15941,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>745</v>
       </c>
@@ -15911,7 +15970,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>747</v>
       </c>
@@ -15940,7 +15999,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>748</v>
       </c>
@@ -15969,7 +16028,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>750</v>
       </c>
@@ -15998,7 +16057,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>752</v>
       </c>
@@ -16027,7 +16086,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>753</v>
       </c>
@@ -16056,7 +16115,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>755</v>
       </c>
@@ -16085,7 +16144,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>756</v>
       </c>
@@ -16114,7 +16173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>757</v>
       </c>
@@ -16143,7 +16202,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>759</v>
       </c>
@@ -16172,7 +16231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>760</v>
       </c>
@@ -16201,7 +16260,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>761</v>
       </c>
@@ -16230,7 +16289,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>725</v>
       </c>
@@ -16259,7 +16318,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>725</v>
       </c>
@@ -16288,7 +16347,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>725</v>
       </c>
@@ -16317,7 +16376,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>725</v>
       </c>
@@ -16346,7 +16405,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>725</v>
       </c>
@@ -16375,7 +16434,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>767</v>
       </c>
@@ -16404,7 +16463,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>303</v>
       </c>
@@ -16433,7 +16492,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>303</v>
       </c>
@@ -16462,7 +16521,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>771</v>
       </c>
@@ -16491,7 +16550,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>725</v>
       </c>
@@ -16520,7 +16579,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>725</v>
       </c>
@@ -16549,7 +16608,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>725</v>
       </c>
@@ -16578,7 +16637,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>725</v>
       </c>
@@ -16607,7 +16666,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>777</v>
       </c>
@@ -16636,7 +16695,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>725</v>
       </c>
@@ -16665,7 +16724,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>725</v>
       </c>
@@ -16694,7 +16753,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
         <v>777</v>
       </c>
@@ -16723,7 +16782,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
         <v>785</v>
       </c>
@@ -16752,7 +16811,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
         <v>786</v>
       </c>
@@ -16781,7 +16840,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
         <v>786</v>
       </c>
@@ -16810,7 +16869,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
         <v>791</v>
       </c>
@@ -16839,7 +16898,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
         <v>725</v>
       </c>
@@ -16868,7 +16927,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="1" t="s">
         <v>725</v>
       </c>
@@ -16897,7 +16956,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483" s="1" t="s">
         <v>725</v>
       </c>
@@ -16926,7 +16985,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484" s="1" t="s">
         <v>796</v>
       </c>
@@ -16955,7 +17014,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485" s="1" t="s">
         <v>798</v>
       </c>
@@ -16984,7 +17043,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486" s="1" t="s">
         <v>725</v>
       </c>
@@ -17013,7 +17072,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487" s="1" t="s">
         <v>725</v>
       </c>
@@ -17042,7 +17101,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488" s="1" t="s">
         <v>725</v>
       </c>
@@ -17071,7 +17130,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489" s="1" t="s">
         <v>725</v>
       </c>
@@ -17100,7 +17159,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490" s="1" t="s">
         <v>725</v>
       </c>
@@ -17129,7 +17188,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491" s="1" t="s">
         <v>806</v>
       </c>
@@ -17158,7 +17217,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492" s="1" t="s">
         <v>808</v>
       </c>
@@ -17187,7 +17246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493" s="1" t="s">
         <v>809</v>
       </c>
@@ -17216,7 +17275,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494" s="1" t="s">
         <v>810</v>
       </c>
@@ -17245,7 +17304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495" s="1" t="s">
         <v>812</v>
       </c>
@@ -17274,7 +17333,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496" s="1" t="s">
         <v>725</v>
       </c>
@@ -17303,7 +17362,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497" s="1" t="s">
         <v>814</v>
       </c>
@@ -17332,7 +17391,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498" s="1" t="s">
         <v>816</v>
       </c>
@@ -17361,7 +17420,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499" s="1" t="s">
         <v>725</v>
       </c>
@@ -17390,7 +17449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500" s="1" t="s">
         <v>725</v>
       </c>
@@ -17419,7 +17478,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>725</v>
       </c>
@@ -17448,7 +17507,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A502" s="1" t="s">
         <v>821</v>
       </c>
@@ -17477,7 +17536,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A503" s="1" t="s">
         <v>823</v>
       </c>
@@ -17506,7 +17565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A504" s="1" t="s">
         <v>824</v>
       </c>
@@ -17535,7 +17594,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A505" s="1" t="s">
         <v>825</v>
       </c>
@@ -17564,7 +17623,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A506" s="1" t="s">
         <v>827</v>
       </c>
@@ -17593,7 +17652,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A507" s="1" t="s">
         <v>829</v>
       </c>
@@ -17622,7 +17681,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A508" s="1" t="s">
         <v>831</v>
       </c>
@@ -17651,7 +17710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A509" s="1" t="s">
         <v>833</v>
       </c>
@@ -17680,7 +17739,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A510" s="1" t="s">
         <v>834</v>
       </c>
@@ -17709,7 +17768,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A511" s="1" t="s">
         <v>835</v>
       </c>
@@ -17738,7 +17797,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A512" s="1" t="s">
         <v>837</v>
       </c>
@@ -17767,7 +17826,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A513" s="1" t="s">
         <v>838</v>
       </c>
@@ -17796,7 +17855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A514" s="1" t="s">
         <v>840</v>
       </c>
@@ -17825,7 +17884,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A515" s="1" t="s">
         <v>841</v>
       </c>
@@ -17854,7 +17913,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A516" s="1" t="s">
         <v>842</v>
       </c>
@@ -17883,7 +17942,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A517" s="1" t="s">
         <v>844</v>
       </c>
@@ -17912,7 +17971,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A518" s="1" t="s">
         <v>846</v>
       </c>
@@ -17941,7 +18000,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A519" s="1" t="s">
         <v>847</v>
       </c>
@@ -17970,7 +18029,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A520" s="1" t="s">
         <v>847</v>
       </c>
@@ -17999,7 +18058,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A521" s="1" t="s">
         <v>847</v>
       </c>
@@ -18028,7 +18087,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A522" s="1" t="s">
         <v>847</v>
       </c>
@@ -18057,7 +18116,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A523" s="1" t="s">
         <v>847</v>
       </c>
@@ -18086,7 +18145,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A524" s="1" t="s">
         <v>847</v>
       </c>
@@ -18115,7 +18174,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A525" s="1" t="s">
         <v>847</v>
       </c>
@@ -18144,7 +18203,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A526" s="1" t="s">
         <v>847</v>
       </c>
@@ -18173,7 +18232,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A527" s="1" t="s">
         <v>847</v>
       </c>
@@ -18202,7 +18261,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A528" s="1" t="s">
         <v>847</v>
       </c>
@@ -18231,7 +18290,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A529" s="1" t="s">
         <v>847</v>
       </c>
@@ -18260,7 +18319,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A530" s="1" t="s">
         <v>847</v>
       </c>
@@ -18289,7 +18348,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A531" s="1" t="s">
         <v>847</v>
       </c>
@@ -18318,7 +18377,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A532" s="1" t="s">
         <v>847</v>
       </c>
@@ -18347,7 +18406,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A533" s="1" t="s">
         <v>847</v>
       </c>
@@ -18376,7 +18435,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A534" s="1" t="s">
         <v>847</v>
       </c>
@@ -18405,7 +18464,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A535" s="1" t="s">
         <v>847</v>
       </c>
@@ -18434,7 +18493,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A536" s="1" t="s">
         <v>847</v>
       </c>
@@ -18463,7 +18522,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A537" s="1" t="s">
         <v>847</v>
       </c>
@@ -18492,7 +18551,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A538" s="1" t="s">
         <v>847</v>
       </c>
@@ -18521,7 +18580,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A539" s="1" t="s">
         <v>847</v>
       </c>
@@ -18550,7 +18609,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A540" s="1" t="s">
         <v>847</v>
       </c>
@@ -18579,7 +18638,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A541" s="1" t="s">
         <v>847</v>
       </c>
@@ -18608,7 +18667,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A542" s="1" t="s">
         <v>847</v>
       </c>
@@ -18637,7 +18696,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A543" s="1" t="s">
         <v>847</v>
       </c>
@@ -18666,7 +18725,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A544" s="1" t="s">
         <v>847</v>
       </c>
@@ -18695,7 +18754,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A545" s="1" t="s">
         <v>847</v>
       </c>
@@ -18724,7 +18783,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A546" s="1" t="s">
         <v>847</v>
       </c>
@@ -18753,7 +18812,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A547" s="1" t="s">
         <v>847</v>
       </c>
@@ -18782,7 +18841,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A548" s="1" t="s">
         <v>847</v>
       </c>
@@ -18811,7 +18870,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A549" s="1" t="s">
         <v>847</v>
       </c>
@@ -18840,7 +18899,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A550" s="1" t="s">
         <v>847</v>
       </c>
@@ -18869,7 +18928,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A551" s="1" t="s">
         <v>847</v>
       </c>
@@ -18898,7 +18957,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A552" s="1" t="s">
         <v>847</v>
       </c>
@@ -18927,7 +18986,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A553" s="1" t="s">
         <v>847</v>
       </c>
@@ -18956,7 +19015,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A554" s="1" t="s">
         <v>847</v>
       </c>
@@ -18985,7 +19044,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A555" s="1" t="s">
         <v>847</v>
       </c>
@@ -19014,7 +19073,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A556" s="1" t="s">
         <v>847</v>
       </c>
@@ -19043,7 +19102,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A557" s="1" t="s">
         <v>847</v>
       </c>
@@ -19072,7 +19131,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A558" s="1" t="s">
         <v>847</v>
       </c>
@@ -19101,7 +19160,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A559" s="1" t="s">
         <v>847</v>
       </c>
@@ -19130,7 +19189,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A560" s="1" t="s">
         <v>847</v>
       </c>
@@ -19159,7 +19218,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A561" s="1" t="s">
         <v>847</v>
       </c>
@@ -19188,7 +19247,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A562" s="1" t="s">
         <v>847</v>
       </c>
@@ -19217,7 +19276,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A563" s="1" t="s">
         <v>847</v>
       </c>
@@ -19246,7 +19305,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A564" s="1" t="s">
         <v>847</v>
       </c>
@@ -19275,7 +19334,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A565" s="1" t="s">
         <v>847</v>
       </c>
@@ -19304,7 +19363,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A566" s="1" t="s">
         <v>847</v>
       </c>
@@ -19333,7 +19392,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A567" s="1" t="s">
         <v>847</v>
       </c>
@@ -19362,7 +19421,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A568" s="1" t="s">
         <v>847</v>
       </c>
@@ -19391,7 +19450,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A569" s="1" t="s">
         <v>847</v>
       </c>
@@ -19420,7 +19479,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A570" s="1" t="s">
         <v>847</v>
       </c>
@@ -19449,7 +19508,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A571" s="1" t="s">
         <v>847</v>
       </c>
@@ -19478,7 +19537,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A572" s="1" t="s">
         <v>847</v>
       </c>
@@ -19507,7 +19566,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A573" s="1" t="s">
         <v>847</v>
       </c>
@@ -19536,7 +19595,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A574" s="1" t="s">
         <v>847</v>
       </c>
@@ -19565,7 +19624,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A575" s="1" t="s">
         <v>847</v>
       </c>
@@ -19594,7 +19653,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A576" s="1" t="s">
         <v>847</v>
       </c>
@@ -19623,7 +19682,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A577" s="1" t="s">
         <v>847</v>
       </c>
@@ -19652,7 +19711,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A578" s="1" t="s">
         <v>847</v>
       </c>
@@ -19681,7 +19740,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A579" s="1" t="s">
         <v>847</v>
       </c>
@@ -19710,7 +19769,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A580" s="1" t="s">
         <v>847</v>
       </c>
@@ -19739,7 +19798,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A581" s="1" t="s">
         <v>847</v>
       </c>
@@ -19768,7 +19827,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A582" s="1" t="s">
         <v>847</v>
       </c>
@@ -19797,7 +19856,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A583" s="1" t="s">
         <v>847</v>
       </c>
@@ -19826,7 +19885,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A584" s="1" t="s">
         <v>847</v>
       </c>
@@ -19855,7 +19914,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A585" s="1" t="s">
         <v>847</v>
       </c>
@@ -19884,7 +19943,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A586" s="1" t="s">
         <v>847</v>
       </c>
@@ -19913,7 +19972,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A587" s="1" t="s">
         <v>847</v>
       </c>
@@ -19942,7 +20001,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A588" s="1" t="s">
         <v>847</v>
       </c>
@@ -19971,7 +20030,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A589" s="1" t="s">
         <v>847</v>
       </c>
@@ -20000,7 +20059,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A590" s="1" t="s">
         <v>847</v>
       </c>
@@ -20029,7 +20088,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A591" s="1" t="s">
         <v>847</v>
       </c>
@@ -20058,7 +20117,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A592" s="1" t="s">
         <v>847</v>
       </c>
@@ -20087,7 +20146,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A593" s="1" t="s">
         <v>847</v>
       </c>
@@ -20116,7 +20175,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A594" s="1" t="s">
         <v>847</v>
       </c>
@@ -20145,7 +20204,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A595" s="1" t="s">
         <v>847</v>
       </c>
@@ -20174,7 +20233,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596" s="1" t="s">
         <v>847</v>
       </c>
@@ -20203,7 +20262,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597" s="1" t="s">
         <v>847</v>
       </c>
@@ -20232,7 +20291,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A598" s="1" t="s">
         <v>847</v>
       </c>
@@ -20261,7 +20320,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A599" s="1" t="s">
         <v>847</v>
       </c>
@@ -20290,7 +20349,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A600" s="1" t="s">
         <v>847</v>
       </c>
@@ -20319,7 +20378,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A601" s="1" t="s">
         <v>847</v>
       </c>
@@ -20348,7 +20407,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A602" s="1" t="s">
         <v>847</v>
       </c>
@@ -20377,7 +20436,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A603" s="1" t="s">
         <v>847</v>
       </c>
@@ -20406,7 +20465,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A604" s="1" t="s">
         <v>847</v>
       </c>
@@ -20435,7 +20494,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A605" s="1" t="s">
         <v>847</v>
       </c>
@@ -20464,7 +20523,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A606" s="1" t="s">
         <v>847</v>
       </c>
@@ -20493,7 +20552,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A607" s="1" t="s">
         <v>847</v>
       </c>
@@ -20522,7 +20581,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A608" s="1" t="s">
         <v>847</v>
       </c>
@@ -20551,7 +20610,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A609" s="1" t="s">
         <v>847</v>
       </c>
@@ -20580,7 +20639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A610" s="1" t="s">
         <v>847</v>
       </c>
@@ -20609,7 +20668,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A611" s="1" t="s">
         <v>847</v>
       </c>
@@ -20638,7 +20697,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A612" s="1" t="s">
         <v>847</v>
       </c>
@@ -20667,7 +20726,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613" s="1" t="s">
         <v>847</v>
       </c>
@@ -20696,7 +20755,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A614" s="1" t="s">
         <v>847</v>
       </c>
@@ -20725,7 +20784,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A615" s="1" t="s">
         <v>847</v>
       </c>
@@ -20754,7 +20813,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A616" s="1" t="s">
         <v>847</v>
       </c>
@@ -20783,7 +20842,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A617" s="1" t="s">
         <v>847</v>
       </c>
@@ -20812,7 +20871,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A618" s="1" t="s">
         <v>847</v>
       </c>
@@ -20841,7 +20900,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>847</v>
       </c>
@@ -20870,7 +20929,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A620" s="1" t="s">
         <v>847</v>
       </c>
@@ -20899,7 +20958,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A621" s="1" t="s">
         <v>847</v>
       </c>
@@ -20928,7 +20987,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A622" s="1" t="s">
         <v>847</v>
       </c>
@@ -20957,7 +21016,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A623" s="1" t="s">
         <v>847</v>
       </c>
@@ -20986,7 +21045,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A624" s="1" t="s">
         <v>847</v>
       </c>
@@ -21015,7 +21074,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A625" s="1" t="s">
         <v>847</v>
       </c>
@@ -21044,7 +21103,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A626" s="1" t="s">
         <v>847</v>
       </c>
@@ -21073,7 +21132,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A627" s="1" t="s">
         <v>847</v>
       </c>
@@ -21102,7 +21161,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A628" s="1" t="s">
         <v>847</v>
       </c>
@@ -21131,7 +21190,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A629" s="1" t="s">
         <v>847</v>
       </c>
@@ -21160,7 +21219,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A630" s="1" t="s">
         <v>847</v>
       </c>
@@ -21189,7 +21248,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A631" s="1" t="s">
         <v>847</v>
       </c>
@@ -21218,7 +21277,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A632" s="1" t="s">
         <v>847</v>
       </c>
@@ -21247,7 +21306,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A633" s="1" t="s">
         <v>847</v>
       </c>
@@ -21276,7 +21335,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A634" s="1" t="s">
         <v>847</v>
       </c>
@@ -21305,7 +21364,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A635" s="1" t="s">
         <v>847</v>
       </c>
@@ -21334,7 +21393,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A636" s="1" t="s">
         <v>847</v>
       </c>
@@ -21363,7 +21422,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A637" s="1" t="s">
         <v>847</v>
       </c>
@@ -21392,7 +21451,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A638" s="1" t="s">
         <v>847</v>
       </c>
@@ -21421,7 +21480,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A639" s="1" t="s">
         <v>847</v>
       </c>
@@ -21450,7 +21509,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A640" s="1" t="s">
         <v>847</v>
       </c>
@@ -21479,7 +21538,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A641" s="1" t="s">
         <v>847</v>
       </c>
@@ -21508,7 +21567,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A642" s="1" t="s">
         <v>847</v>
       </c>
@@ -21537,7 +21596,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A643" s="1" t="s">
         <v>847</v>
       </c>
@@ -21566,7 +21625,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A644" s="1" t="s">
         <v>847</v>
       </c>
@@ -21595,7 +21654,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A645" s="1" t="s">
         <v>847</v>
       </c>
@@ -21624,7 +21683,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A646" s="1" t="s">
         <v>847</v>
       </c>
@@ -21653,7 +21712,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A647" s="1" t="s">
         <v>847</v>
       </c>
@@ -21682,7 +21741,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A648" s="1" t="s">
         <v>847</v>
       </c>
@@ -21718,13 +21777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>